--- a/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
+++ b/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8940" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
     <sheet name="nextbridge.com" sheetId="2" r:id="rId2"/>
     <sheet name="nextbridge.pk" sheetId="3" r:id="rId3"/>
+    <sheet name="imagesRequired" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>SR#</t>
   </si>
@@ -115,6 +116,27 @@
   </si>
   <si>
     <t>We Make Good Engineers</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>https://nextbridge.com/robotics-machine-design/</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>https://www.nextbridge.pk/robotic-works/</t>
+  </si>
+  <si>
+    <t>11.jpg;3.jpg</t>
   </si>
 </sst>
 </file>
@@ -122,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -165,14 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,50 +208,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,8 +239,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,15 +280,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,85 +331,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,96 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,8 +543,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,24 +590,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,49 +632,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,136 +658,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1146,7 +1169,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1233,7 +1256,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
@@ -1253,7 +1276,7 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1273,7 +1296,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -1333,7 +1356,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
@@ -1353,7 +1376,7 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
@@ -1373,7 +1396,7 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
@@ -1392,7 +1415,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.1428571428571" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1479,7 +1502,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
@@ -1499,10 +1522,102 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="50.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
+++ b/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9810" activeTab="3"/>
+    <workbookView windowWidth="24000" windowHeight="9810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
     <sheet name="nextbridge.com" sheetId="2" r:id="rId2"/>
     <sheet name="nextbridge.pk" sheetId="3" r:id="rId3"/>
-    <sheet name="imagesRequired" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>SR#</t>
   </si>
@@ -113,30 +112,6 @@
   </si>
   <si>
     <t>https://www.nextbridge.pk/</t>
-  </si>
-  <si>
-    <t>We Make Good Engineers</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>ImageName</t>
-  </si>
-  <si>
-    <t>https://nextbridge.com/robotics-machine-design/</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>https://www.nextbridge.pk/robotic-works/</t>
-  </si>
-  <si>
-    <t>11.jpg;3.jpg</t>
   </si>
 </sst>
 </file>
@@ -144,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -186,8 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,18 +184,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,23 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,37 +278,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,181 +312,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,7 +534,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +550,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,11 +580,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,165 +602,152 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,14 +756,13 @@
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1170,7 +1144,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1256,7 +1230,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
@@ -1276,7 +1250,7 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1296,7 +1270,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -1356,7 +1330,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
@@ -1376,7 +1350,7 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
@@ -1396,7 +1370,7 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
@@ -1412,13 +1386,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="79.1428571428571" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="79.1428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="10.8571428571429" customWidth="1"/>
@@ -1489,138 +1463,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="8.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="50.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
+++ b/ContentCheckingArtifact/src/main/resources/websitesFile.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9810" activeTab="2"/>
+    <workbookView windowWidth="24000" windowHeight="9810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
     <sheet name="nextbridge.com" sheetId="2" r:id="rId2"/>
     <sheet name="nextbridge.pk" sheetId="3" r:id="rId3"/>
+    <sheet name="BaseImages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>SR#</t>
   </si>
@@ -112,6 +113,27 @@
   </si>
   <si>
     <t>https://www.nextbridge.pk/</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://nextbridge.com/services/robotics-software/</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>https://nextbridge.com/robotics-machine-design/</t>
+  </si>
+  <si>
+    <t>3D-1.jpg;ipad-1.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg;27.jpg</t>
   </si>
 </sst>
 </file>
@@ -120,9 +142,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,14 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -192,8 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,9 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,14 +300,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +328,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,157 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,24 +593,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +634,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,136 +655,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1230,7 +1253,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
@@ -1250,7 +1273,7 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1270,7 +1293,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -1330,7 +1353,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
@@ -1350,7 +1373,7 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
@@ -1370,7 +1393,7 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
@@ -1388,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.1428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1467,4 +1490,83 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="52.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="19.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>